--- a/GATEWAY/A1#111INFORDATADHS/INFORDATA_DIGITAL_HEALTH_SOLUTIONS/Astrolabio/11.231.650/report_checklist.xlsx
+++ b/GATEWAY/A1#111INFORDATADHS/INFORDATA_DIGITAL_HEALTH_SOLUTIONS/Astrolabio/11.231.650/report_checklist.xlsx
@@ -11,7 +11,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="216" uniqueCount="117">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="255" uniqueCount="132">
   <si>
     <t>NOME FORNITORE:</t>
   </si>
@@ -186,6 +186,69 @@
     <t>2.16.840.1.113883.2.9.2.120.4.4.dce531277d845c6f268f2533517147836a2284c10d36368026dff885aba936b7.28676a1757^^^^urn:ihe:iti:xdw:2013:workflowInstanceId</t>
   </si>
   <si>
+    <t>VALIDAZIONE_TOKEN_JWT_LAB_KO</t>
+  </si>
+  <si>
+    <t>Precondizioni:
+Il fornitore utilizza un token jwt mancante di campi obbligatori, quindi non valido.
+Descrizione di Business del caso di test: 
+Viene richiamato il servizio di validazione "https://&lt;HOST&gt;:&lt;PORT&gt;/v&lt;major&gt;/documents/validation" con un token jwt non valido a causa della mancanza di uno o più campi obbligatori al fine di testare la gestione dell'errore sul token (status code 403), secondo quanto descritto in https://github.com/ministero-salute/it-fse-support/tree/main/doc/integrazione-gateway.
+Al fine di rendere non valido il token è necessario non valorizzare nel JWT il campo "purpose_of_use".</t>
+  </si>
+  <si>
+    <t>2023-07-10T10:50:38Z</t>
+  </si>
+  <si>
+    <t>106cf1a08eb70a43</t>
+  </si>
+  <si>
+    <t>UNKNOWN_WORKFLOW_ID</t>
+  </si>
+  <si>
+    <t>Campo token JWT non valido.","detail":"Il campo purpose_of_use non è valorizzato","status":403</t>
+  </si>
+  <si>
+    <t>NO</t>
+  </si>
+  <si>
+    <t>Correzione dei dati e reinvio</t>
+  </si>
+  <si>
+    <t>KO</t>
+  </si>
+  <si>
+    <t>VALIDAZIONE_TOKEN_JWT_CAMPO_LAB_KO</t>
+  </si>
+  <si>
+    <t>Precondizioni:
+Il fornitore utilizza un token jwt con dei campi valorizzati in maniera errata.
+Descrizione di Business del caso di test: 
+Viene richiamato il servizio di validazione "https://&lt;HOST&gt;:&lt;PORT&gt;/v&lt;major&gt;/documents/validation" con un token jwt avente dei campi valorizzati in maniera errata al fine di testare la gestione dell'errore sul token (status code 403), secondo quanto descritto in https://github.com/ministero-salute/it-fse-support/tree/main/doc/integrazione-gateway.
+Al fine di rendere non valido il token è necessario valorizzare il campo "action_id" con la stringa "TEST" (valore non ammesso).</t>
+  </si>
+  <si>
+    <t>2023-07-10T09:55:41Z</t>
+  </si>
+  <si>
+    <t>91f1883e83ed0a6d</t>
+  </si>
+  <si>
+    <t>Campo token JWT non valido.","detail":"Il campo action_id non è corretto","status":403</t>
+  </si>
+  <si>
+    <t>VALIDAZIONE_LAB_TIMEOUT</t>
+  </si>
+  <si>
+    <t>Per questo caso di test è richiesta la sola descrizione del comportamento a fronte di un timeout, da inserire nelle colonne relative a:
+"ERRORE BLOCCANTE (SI/NO)", "ERRORE VISIBILE A UTENTE (SI/NO)", "MESSAGGIO DI ERRORE", "GESTITO IN BACKOFFICE (SI/NO)", "GESTIONE ERRORE".</t>
+  </si>
+  <si>
+    <t>“connection TimeOut”</t>
+  </si>
+  <si>
+    <t>Il documento rimane in stato “da inviare” e rimane nella coda pronto per essere reinviato</t>
+  </si>
+  <si>
     <t>VALIDAZIONE_CDA2_LAB_CT6_KO</t>
   </si>
   <si>
@@ -203,15 +266,6 @@
   </si>
   <si>
     <t>L'elemento 'confidentialityCode' di ClinicalDocument DEVE avere l'attributo @code valorizzato con 'N' o 'V', e il suo @codeSystem con '2.16.840.1.113883.5.25'</t>
-  </si>
-  <si>
-    <t>NO</t>
-  </si>
-  <si>
-    <t>Correzione dei dati e reinvio</t>
-  </si>
-  <si>
-    <t>KO</t>
   </si>
   <si>
     <t>VALIDAZIONE_CDA2_LAB_CT7_KO</t>
@@ -596,7 +650,7 @@
   <cellStyleXfs count="1">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" applyAlignment="1" applyFont="1"/>
   </cellStyleXfs>
-  <cellXfs count="26">
+  <cellXfs count="34">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
     </xf>
@@ -656,6 +710,30 @@
     </xf>
     <xf borderId="15" fillId="0" fontId="4" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment horizontal="center" readingOrder="0" vertical="bottom"/>
+    </xf>
+    <xf borderId="11" fillId="0" fontId="4" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment horizontal="center" readingOrder="0"/>
+    </xf>
+    <xf borderId="12" fillId="0" fontId="4" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment horizontal="center" readingOrder="0"/>
+    </xf>
+    <xf borderId="13" fillId="0" fontId="4" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment horizontal="left" readingOrder="0"/>
+    </xf>
+    <xf borderId="12" fillId="0" fontId="4" numFmtId="164" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
+      <alignment horizontal="center" readingOrder="0"/>
+    </xf>
+    <xf borderId="13" fillId="0" fontId="4" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment horizontal="center" readingOrder="0"/>
+    </xf>
+    <xf borderId="13" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf borderId="15" fillId="0" fontId="4" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment horizontal="center" readingOrder="0"/>
+    </xf>
+    <xf borderId="12" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment horizontal="center"/>
     </xf>
     <xf borderId="13" fillId="0" fontId="4" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment horizontal="left" readingOrder="0" vertical="bottom"/>
@@ -879,12 +957,8 @@
   </sheetViews>
   <sheetFormatPr customHeight="1" defaultColWidth="12.63" defaultRowHeight="15.75"/>
   <cols>
-    <col customWidth="1" min="3" max="3" width="21.75"/>
-    <col customWidth="1" min="4" max="4" width="32.63"/>
-    <col customWidth="1" min="5" max="5" width="28.38"/>
-    <col customWidth="1" min="7" max="7" width="23.0"/>
-    <col customWidth="1" min="8" max="8" width="19.5"/>
-    <col customWidth="1" min="9" max="9" width="34.13"/>
+    <col customWidth="1" min="3" max="3" width="23.25"/>
+    <col customWidth="1" min="4" max="4" width="31.25"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -1366,44 +1440,44 @@
       </c>
     </row>
     <row r="15">
-      <c r="A15" s="15">
-        <v>52.0</v>
-      </c>
-      <c r="B15" s="16" t="s">
+      <c r="A15" s="24">
+        <v>28.0</v>
+      </c>
+      <c r="B15" s="25" t="s">
         <v>26</v>
       </c>
-      <c r="C15" s="16" t="s">
+      <c r="C15" s="25" t="s">
         <v>27</v>
       </c>
-      <c r="D15" s="16" t="s">
+      <c r="D15" s="25" t="s">
         <v>56</v>
       </c>
-      <c r="E15" s="24" t="s">
+      <c r="E15" s="26" t="s">
         <v>57</v>
       </c>
-      <c r="F15" s="18">
-        <v>45105.0</v>
-      </c>
-      <c r="G15" s="19" t="s">
+      <c r="F15" s="27">
+        <v>45117.0</v>
+      </c>
+      <c r="G15" s="28" t="s">
         <v>58</v>
       </c>
-      <c r="H15" s="19" t="s">
+      <c r="H15" s="28" t="s">
         <v>59</v>
       </c>
-      <c r="I15" s="19" t="s">
+      <c r="I15" s="28" t="s">
         <v>60</v>
       </c>
       <c r="J15" s="19" t="s">
         <v>33</v>
       </c>
-      <c r="K15" s="20"/>
+      <c r="K15" s="29"/>
       <c r="L15" s="19" t="s">
         <v>33</v>
       </c>
       <c r="M15" s="19" t="s">
         <v>33</v>
       </c>
-      <c r="N15" s="19" t="s">
+      <c r="N15" s="28" t="s">
         <v>61</v>
       </c>
       <c r="O15" s="19" t="s">
@@ -1412,53 +1486,53 @@
       <c r="P15" s="19" t="s">
         <v>63</v>
       </c>
-      <c r="Q15" s="20"/>
-      <c r="R15" s="20"/>
+      <c r="Q15" s="29"/>
+      <c r="R15" s="29"/>
       <c r="S15" s="22"/>
-      <c r="T15" s="23" t="s">
+      <c r="T15" s="30" t="s">
         <v>64</v>
       </c>
     </row>
     <row r="16">
-      <c r="A16" s="15">
-        <v>53.0</v>
-      </c>
-      <c r="B16" s="16" t="s">
+      <c r="A16" s="24">
+        <v>36.0</v>
+      </c>
+      <c r="B16" s="25" t="s">
         <v>26</v>
       </c>
-      <c r="C16" s="16" t="s">
+      <c r="C16" s="25" t="s">
         <v>27</v>
       </c>
-      <c r="D16" s="16" t="s">
+      <c r="D16" s="25" t="s">
         <v>65</v>
       </c>
-      <c r="E16" s="24" t="s">
+      <c r="E16" s="26" t="s">
         <v>66</v>
       </c>
-      <c r="F16" s="18">
-        <v>45105.0</v>
-      </c>
-      <c r="G16" s="19" t="s">
+      <c r="F16" s="27">
+        <v>45117.0</v>
+      </c>
+      <c r="G16" s="28" t="s">
         <v>67</v>
       </c>
-      <c r="H16" s="19" t="s">
+      <c r="H16" s="28" t="s">
         <v>68</v>
       </c>
-      <c r="I16" s="19" t="s">
+      <c r="I16" s="28" t="s">
+        <v>60</v>
+      </c>
+      <c r="J16" s="19" t="s">
+        <v>33</v>
+      </c>
+      <c r="K16" s="29"/>
+      <c r="L16" s="19" t="s">
+        <v>33</v>
+      </c>
+      <c r="M16" s="19" t="s">
+        <v>33</v>
+      </c>
+      <c r="N16" s="28" t="s">
         <v>69</v>
-      </c>
-      <c r="J16" s="19" t="s">
-        <v>33</v>
-      </c>
-      <c r="K16" s="20"/>
-      <c r="L16" s="19" t="s">
-        <v>33</v>
-      </c>
-      <c r="M16" s="19" t="s">
-        <v>33</v>
-      </c>
-      <c r="N16" s="19" t="s">
-        <v>70</v>
       </c>
       <c r="O16" s="19" t="s">
         <v>62</v>
@@ -1466,70 +1540,62 @@
       <c r="P16" s="19" t="s">
         <v>63</v>
       </c>
-      <c r="Q16" s="20"/>
-      <c r="R16" s="20"/>
+      <c r="Q16" s="29"/>
+      <c r="R16" s="29"/>
       <c r="S16" s="22"/>
-      <c r="T16" s="23" t="s">
+      <c r="T16" s="30" t="s">
         <v>64</v>
       </c>
     </row>
     <row r="17">
-      <c r="A17" s="15">
-        <v>54.0</v>
-      </c>
-      <c r="B17" s="16" t="s">
+      <c r="A17" s="24">
+        <v>44.0</v>
+      </c>
+      <c r="B17" s="25" t="s">
         <v>26</v>
       </c>
-      <c r="C17" s="16" t="s">
+      <c r="C17" s="25" t="s">
         <v>27</v>
       </c>
-      <c r="D17" s="16" t="s">
+      <c r="D17" s="25" t="s">
+        <v>70</v>
+      </c>
+      <c r="E17" s="26" t="s">
         <v>71</v>
       </c>
-      <c r="E17" s="24" t="s">
+      <c r="F17" s="31"/>
+      <c r="G17" s="29"/>
+      <c r="H17" s="29"/>
+      <c r="I17" s="29"/>
+      <c r="J17" s="19" t="s">
+        <v>33</v>
+      </c>
+      <c r="K17" s="29"/>
+      <c r="L17" s="19" t="s">
+        <v>33</v>
+      </c>
+      <c r="M17" s="19" t="s">
+        <v>33</v>
+      </c>
+      <c r="N17" s="28" t="s">
         <v>72</v>
       </c>
-      <c r="F17" s="18">
-        <v>45105.0</v>
-      </c>
-      <c r="G17" s="19" t="s">
+      <c r="O17" s="19" t="s">
+        <v>33</v>
+      </c>
+      <c r="P17" s="28" t="s">
         <v>73</v>
       </c>
-      <c r="H17" s="19" t="s">
-        <v>74</v>
-      </c>
-      <c r="I17" s="19" t="s">
-        <v>75</v>
-      </c>
-      <c r="J17" s="19" t="s">
-        <v>33</v>
-      </c>
-      <c r="K17" s="20"/>
-      <c r="L17" s="19" t="s">
-        <v>33</v>
-      </c>
-      <c r="M17" s="19" t="s">
-        <v>33</v>
-      </c>
-      <c r="N17" s="19" t="s">
-        <v>76</v>
-      </c>
-      <c r="O17" s="19" t="s">
-        <v>62</v>
-      </c>
-      <c r="P17" s="19" t="s">
-        <v>63</v>
-      </c>
-      <c r="Q17" s="20"/>
-      <c r="R17" s="20"/>
+      <c r="Q17" s="29"/>
+      <c r="R17" s="29"/>
       <c r="S17" s="22"/>
-      <c r="T17" s="23" t="s">
+      <c r="T17" s="30" t="s">
         <v>64</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" s="15">
-        <v>55.0</v>
+        <v>52.0</v>
       </c>
       <c r="B18" s="16" t="s">
         <v>26</v>
@@ -1538,26 +1604,42 @@
         <v>27</v>
       </c>
       <c r="D18" s="16" t="s">
+        <v>74</v>
+      </c>
+      <c r="E18" s="32" t="s">
+        <v>75</v>
+      </c>
+      <c r="F18" s="18">
+        <v>45105.0</v>
+      </c>
+      <c r="G18" s="19" t="s">
+        <v>76</v>
+      </c>
+      <c r="H18" s="19" t="s">
         <v>77</v>
       </c>
-      <c r="E18" s="24" t="s">
+      <c r="I18" s="19" t="s">
         <v>78</v>
       </c>
-      <c r="F18" s="25"/>
-      <c r="G18" s="20"/>
-      <c r="H18" s="20"/>
-      <c r="I18" s="20"/>
       <c r="J18" s="19" t="s">
+        <v>33</v>
+      </c>
+      <c r="K18" s="20"/>
+      <c r="L18" s="19" t="s">
+        <v>33</v>
+      </c>
+      <c r="M18" s="19" t="s">
+        <v>33</v>
+      </c>
+      <c r="N18" s="19" t="s">
+        <v>79</v>
+      </c>
+      <c r="O18" s="19" t="s">
         <v>62</v>
       </c>
-      <c r="K18" s="19" t="s">
-        <v>79</v>
-      </c>
-      <c r="L18" s="1"/>
-      <c r="M18" s="20"/>
-      <c r="N18" s="20"/>
-      <c r="O18" s="20"/>
-      <c r="P18" s="20"/>
+      <c r="P18" s="19" t="s">
+        <v>63</v>
+      </c>
       <c r="Q18" s="20"/>
       <c r="R18" s="20"/>
       <c r="S18" s="22"/>
@@ -1567,7 +1649,7 @@
     </row>
     <row r="19">
       <c r="A19" s="15">
-        <v>56.0</v>
+        <v>53.0</v>
       </c>
       <c r="B19" s="16" t="s">
         <v>26</v>
@@ -1578,24 +1660,40 @@
       <c r="D19" s="16" t="s">
         <v>80</v>
       </c>
-      <c r="E19" s="24" t="s">
+      <c r="E19" s="32" t="s">
         <v>81</v>
       </c>
-      <c r="F19" s="25"/>
-      <c r="G19" s="20"/>
-      <c r="H19" s="20"/>
-      <c r="I19" s="20"/>
+      <c r="F19" s="18">
+        <v>45105.0</v>
+      </c>
+      <c r="G19" s="19" t="s">
+        <v>82</v>
+      </c>
+      <c r="H19" s="19" t="s">
+        <v>83</v>
+      </c>
+      <c r="I19" s="19" t="s">
+        <v>84</v>
+      </c>
       <c r="J19" s="19" t="s">
+        <v>33</v>
+      </c>
+      <c r="K19" s="20"/>
+      <c r="L19" s="19" t="s">
+        <v>33</v>
+      </c>
+      <c r="M19" s="19" t="s">
+        <v>33</v>
+      </c>
+      <c r="N19" s="19" t="s">
+        <v>85</v>
+      </c>
+      <c r="O19" s="19" t="s">
         <v>62</v>
       </c>
-      <c r="K19" s="19" t="s">
-        <v>82</v>
-      </c>
-      <c r="L19" s="20"/>
-      <c r="M19" s="20"/>
-      <c r="N19" s="20"/>
-      <c r="O19" s="20"/>
-      <c r="P19" s="20"/>
+      <c r="P19" s="19" t="s">
+        <v>63</v>
+      </c>
       <c r="Q19" s="20"/>
       <c r="R19" s="20"/>
       <c r="S19" s="22"/>
@@ -1605,7 +1703,7 @@
     </row>
     <row r="20">
       <c r="A20" s="15">
-        <v>57.0</v>
+        <v>54.0</v>
       </c>
       <c r="B20" s="16" t="s">
         <v>26</v>
@@ -1614,22 +1712,22 @@
         <v>27</v>
       </c>
       <c r="D20" s="16" t="s">
-        <v>83</v>
-      </c>
-      <c r="E20" s="24" t="s">
-        <v>84</v>
+        <v>86</v>
+      </c>
+      <c r="E20" s="32" t="s">
+        <v>87</v>
       </c>
       <c r="F20" s="18">
-        <v>45106.0</v>
+        <v>45105.0</v>
       </c>
       <c r="G20" s="19" t="s">
-        <v>85</v>
+        <v>88</v>
       </c>
       <c r="H20" s="19" t="s">
-        <v>86</v>
+        <v>89</v>
       </c>
       <c r="I20" s="19" t="s">
-        <v>87</v>
+        <v>90</v>
       </c>
       <c r="J20" s="19" t="s">
         <v>33</v>
@@ -1642,7 +1740,7 @@
         <v>33</v>
       </c>
       <c r="N20" s="19" t="s">
-        <v>88</v>
+        <v>91</v>
       </c>
       <c r="O20" s="19" t="s">
         <v>62</v>
@@ -1659,7 +1757,7 @@
     </row>
     <row r="21">
       <c r="A21" s="15">
-        <v>58.0</v>
+        <v>55.0</v>
       </c>
       <c r="B21" s="16" t="s">
         <v>26</v>
@@ -1668,42 +1766,26 @@
         <v>27</v>
       </c>
       <c r="D21" s="16" t="s">
-        <v>89</v>
-      </c>
-      <c r="E21" s="24" t="s">
-        <v>90</v>
-      </c>
-      <c r="F21" s="18">
-        <v>45106.0</v>
-      </c>
-      <c r="G21" s="19" t="s">
-        <v>91</v>
-      </c>
-      <c r="H21" s="19" t="s">
         <v>92</v>
       </c>
-      <c r="I21" s="19" t="s">
+      <c r="E21" s="32" t="s">
         <v>93</v>
       </c>
+      <c r="F21" s="33"/>
+      <c r="G21" s="20"/>
+      <c r="H21" s="20"/>
+      <c r="I21" s="20"/>
       <c r="J21" s="19" t="s">
-        <v>33</v>
-      </c>
-      <c r="K21" s="20"/>
-      <c r="L21" s="19" t="s">
-        <v>33</v>
-      </c>
-      <c r="M21" s="19" t="s">
-        <v>33</v>
-      </c>
-      <c r="N21" s="19" t="s">
+        <v>62</v>
+      </c>
+      <c r="K21" s="19" t="s">
         <v>94</v>
       </c>
-      <c r="O21" s="19" t="s">
-        <v>62</v>
-      </c>
-      <c r="P21" s="19" t="s">
-        <v>63</v>
-      </c>
+      <c r="L21" s="1"/>
+      <c r="M21" s="20"/>
+      <c r="N21" s="20"/>
+      <c r="O21" s="20"/>
+      <c r="P21" s="20"/>
       <c r="Q21" s="20"/>
       <c r="R21" s="20"/>
       <c r="S21" s="22"/>
@@ -1713,7 +1795,7 @@
     </row>
     <row r="22">
       <c r="A22" s="15">
-        <v>59.0</v>
+        <v>56.0</v>
       </c>
       <c r="B22" s="16" t="s">
         <v>26</v>
@@ -1724,40 +1806,24 @@
       <c r="D22" s="16" t="s">
         <v>95</v>
       </c>
-      <c r="E22" s="24" t="s">
+      <c r="E22" s="32" t="s">
         <v>96</v>
       </c>
-      <c r="F22" s="18">
-        <v>45106.0</v>
-      </c>
-      <c r="G22" s="19" t="s">
+      <c r="F22" s="33"/>
+      <c r="G22" s="20"/>
+      <c r="H22" s="20"/>
+      <c r="I22" s="20"/>
+      <c r="J22" s="19" t="s">
+        <v>62</v>
+      </c>
+      <c r="K22" s="19" t="s">
         <v>97</v>
       </c>
-      <c r="H22" s="19" t="s">
-        <v>98</v>
-      </c>
-      <c r="I22" s="19" t="s">
-        <v>99</v>
-      </c>
-      <c r="J22" s="19" t="s">
-        <v>33</v>
-      </c>
-      <c r="K22" s="20"/>
-      <c r="L22" s="19" t="s">
-        <v>33</v>
-      </c>
-      <c r="M22" s="19" t="s">
-        <v>33</v>
-      </c>
-      <c r="N22" s="19" t="s">
-        <v>100</v>
-      </c>
-      <c r="O22" s="19" t="s">
-        <v>62</v>
-      </c>
-      <c r="P22" s="19" t="s">
-        <v>63</v>
-      </c>
+      <c r="L22" s="20"/>
+      <c r="M22" s="20"/>
+      <c r="N22" s="20"/>
+      <c r="O22" s="20"/>
+      <c r="P22" s="20"/>
       <c r="Q22" s="20"/>
       <c r="R22" s="20"/>
       <c r="S22" s="22"/>
@@ -1767,7 +1833,7 @@
     </row>
     <row r="23">
       <c r="A23" s="15">
-        <v>60.0</v>
+        <v>57.0</v>
       </c>
       <c r="B23" s="16" t="s">
         <v>26</v>
@@ -1776,22 +1842,22 @@
         <v>27</v>
       </c>
       <c r="D23" s="16" t="s">
-        <v>101</v>
-      </c>
-      <c r="E23" s="24" t="s">
-        <v>102</v>
+        <v>98</v>
+      </c>
+      <c r="E23" s="32" t="s">
+        <v>99</v>
       </c>
       <c r="F23" s="18">
         <v>45106.0</v>
       </c>
       <c r="G23" s="19" t="s">
-        <v>103</v>
+        <v>100</v>
       </c>
       <c r="H23" s="19" t="s">
-        <v>104</v>
+        <v>101</v>
       </c>
       <c r="I23" s="19" t="s">
-        <v>105</v>
+        <v>102</v>
       </c>
       <c r="J23" s="19" t="s">
         <v>33</v>
@@ -1804,7 +1870,7 @@
         <v>33</v>
       </c>
       <c r="N23" s="19" t="s">
-        <v>106</v>
+        <v>103</v>
       </c>
       <c r="O23" s="19" t="s">
         <v>62</v>
@@ -1821,7 +1887,7 @@
     </row>
     <row r="24">
       <c r="A24" s="15">
-        <v>61.0</v>
+        <v>58.0</v>
       </c>
       <c r="B24" s="16" t="s">
         <v>26</v>
@@ -1830,22 +1896,22 @@
         <v>27</v>
       </c>
       <c r="D24" s="16" t="s">
-        <v>107</v>
-      </c>
-      <c r="E24" s="24" t="s">
-        <v>108</v>
+        <v>104</v>
+      </c>
+      <c r="E24" s="32" t="s">
+        <v>105</v>
       </c>
       <c r="F24" s="18">
         <v>45106.0</v>
       </c>
       <c r="G24" s="19" t="s">
-        <v>109</v>
+        <v>106</v>
       </c>
       <c r="H24" s="19" t="s">
-        <v>110</v>
+        <v>107</v>
       </c>
       <c r="I24" s="19" t="s">
-        <v>111</v>
+        <v>108</v>
       </c>
       <c r="J24" s="19" t="s">
         <v>33</v>
@@ -1858,7 +1924,7 @@
         <v>33</v>
       </c>
       <c r="N24" s="19" t="s">
-        <v>106</v>
+        <v>109</v>
       </c>
       <c r="O24" s="19" t="s">
         <v>62</v>
@@ -1875,7 +1941,7 @@
     </row>
     <row r="25">
       <c r="A25" s="15">
-        <v>62.0</v>
+        <v>59.0</v>
       </c>
       <c r="B25" s="16" t="s">
         <v>26</v>
@@ -1884,22 +1950,22 @@
         <v>27</v>
       </c>
       <c r="D25" s="16" t="s">
-        <v>112</v>
-      </c>
-      <c r="E25" s="24" t="s">
-        <v>113</v>
+        <v>110</v>
+      </c>
+      <c r="E25" s="32" t="s">
+        <v>111</v>
       </c>
       <c r="F25" s="18">
         <v>45106.0</v>
       </c>
       <c r="G25" s="19" t="s">
+        <v>112</v>
+      </c>
+      <c r="H25" s="19" t="s">
+        <v>113</v>
+      </c>
+      <c r="I25" s="19" t="s">
         <v>114</v>
-      </c>
-      <c r="H25" s="19" t="s">
-        <v>115</v>
-      </c>
-      <c r="I25" s="19" t="s">
-        <v>116</v>
       </c>
       <c r="J25" s="19" t="s">
         <v>33</v>
@@ -1912,7 +1978,7 @@
         <v>33</v>
       </c>
       <c r="N25" s="19" t="s">
-        <v>106</v>
+        <v>115</v>
       </c>
       <c r="O25" s="19" t="s">
         <v>62</v>
@@ -1924,6 +1990,168 @@
       <c r="R25" s="20"/>
       <c r="S25" s="22"/>
       <c r="T25" s="23" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" s="15">
+        <v>60.0</v>
+      </c>
+      <c r="B26" s="16" t="s">
+        <v>26</v>
+      </c>
+      <c r="C26" s="16" t="s">
+        <v>27</v>
+      </c>
+      <c r="D26" s="16" t="s">
+        <v>116</v>
+      </c>
+      <c r="E26" s="32" t="s">
+        <v>117</v>
+      </c>
+      <c r="F26" s="18">
+        <v>45106.0</v>
+      </c>
+      <c r="G26" s="19" t="s">
+        <v>118</v>
+      </c>
+      <c r="H26" s="19" t="s">
+        <v>119</v>
+      </c>
+      <c r="I26" s="19" t="s">
+        <v>120</v>
+      </c>
+      <c r="J26" s="19" t="s">
+        <v>33</v>
+      </c>
+      <c r="K26" s="20"/>
+      <c r="L26" s="19" t="s">
+        <v>33</v>
+      </c>
+      <c r="M26" s="19" t="s">
+        <v>33</v>
+      </c>
+      <c r="N26" s="19" t="s">
+        <v>121</v>
+      </c>
+      <c r="O26" s="19" t="s">
+        <v>62</v>
+      </c>
+      <c r="P26" s="19" t="s">
+        <v>63</v>
+      </c>
+      <c r="Q26" s="20"/>
+      <c r="R26" s="20"/>
+      <c r="S26" s="22"/>
+      <c r="T26" s="23" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" s="15">
+        <v>61.0</v>
+      </c>
+      <c r="B27" s="16" t="s">
+        <v>26</v>
+      </c>
+      <c r="C27" s="16" t="s">
+        <v>27</v>
+      </c>
+      <c r="D27" s="16" t="s">
+        <v>122</v>
+      </c>
+      <c r="E27" s="32" t="s">
+        <v>123</v>
+      </c>
+      <c r="F27" s="18">
+        <v>45106.0</v>
+      </c>
+      <c r="G27" s="19" t="s">
+        <v>124</v>
+      </c>
+      <c r="H27" s="19" t="s">
+        <v>125</v>
+      </c>
+      <c r="I27" s="19" t="s">
+        <v>126</v>
+      </c>
+      <c r="J27" s="19" t="s">
+        <v>33</v>
+      </c>
+      <c r="K27" s="20"/>
+      <c r="L27" s="19" t="s">
+        <v>33</v>
+      </c>
+      <c r="M27" s="19" t="s">
+        <v>33</v>
+      </c>
+      <c r="N27" s="19" t="s">
+        <v>121</v>
+      </c>
+      <c r="O27" s="19" t="s">
+        <v>62</v>
+      </c>
+      <c r="P27" s="19" t="s">
+        <v>63</v>
+      </c>
+      <c r="Q27" s="20"/>
+      <c r="R27" s="20"/>
+      <c r="S27" s="22"/>
+      <c r="T27" s="23" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" s="15">
+        <v>62.0</v>
+      </c>
+      <c r="B28" s="16" t="s">
+        <v>26</v>
+      </c>
+      <c r="C28" s="16" t="s">
+        <v>27</v>
+      </c>
+      <c r="D28" s="16" t="s">
+        <v>127</v>
+      </c>
+      <c r="E28" s="32" t="s">
+        <v>128</v>
+      </c>
+      <c r="F28" s="18">
+        <v>45106.0</v>
+      </c>
+      <c r="G28" s="19" t="s">
+        <v>129</v>
+      </c>
+      <c r="H28" s="19" t="s">
+        <v>130</v>
+      </c>
+      <c r="I28" s="19" t="s">
+        <v>131</v>
+      </c>
+      <c r="J28" s="19" t="s">
+        <v>33</v>
+      </c>
+      <c r="K28" s="20"/>
+      <c r="L28" s="19" t="s">
+        <v>33</v>
+      </c>
+      <c r="M28" s="19" t="s">
+        <v>33</v>
+      </c>
+      <c r="N28" s="19" t="s">
+        <v>121</v>
+      </c>
+      <c r="O28" s="19" t="s">
+        <v>62</v>
+      </c>
+      <c r="P28" s="19" t="s">
+        <v>63</v>
+      </c>
+      <c r="Q28" s="20"/>
+      <c r="R28" s="20"/>
+      <c r="S28" s="22"/>
+      <c r="T28" s="23" t="s">
         <v>64</v>
       </c>
     </row>
